--- a/resources/experiment 2/metrics/R2/incidence/Ceguera (INC).xlsx
+++ b/resources/experiment 2/metrics/R2/incidence/Ceguera (INC).xlsx
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9458822342811132</v>
+        <v>0.9930953655259126</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9458819488951979</v>
+        <v>0.9916337801413614</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9458819488951979</v>
+        <v>0.9729820265271649</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9969550905409817</v>
+        <v>0.9854741089323991</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9969725618593248</v>
+        <v>0.9847295918877119</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9969725618593248</v>
+        <v>0.9196670521670267</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.800512604326545</v>
+        <v>0.9971513494778254</v>
       </c>
       <c r="C5" t="n">
-        <v>0.800512604326545</v>
+        <v>0.9948672209730874</v>
       </c>
       <c r="D5" t="n">
-        <v>0.800512604326545</v>
+        <v>0.9910473861522036</v>
       </c>
     </row>
   </sheetData>
